--- a/01-data/bestmodel_export.xlsx
+++ b/01-data/bestmodel_export.xlsx
@@ -491,7 +491,9 @@
           <t>max_depth</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -548,7 +550,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">

--- a/01-data/bestmodel_export.xlsx
+++ b/01-data/bestmodel_export.xlsx
@@ -491,9 +491,7 @@
           <t>max_depth</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -550,7 +548,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">

--- a/01-data/bestmodel_export.xlsx
+++ b/01-data/bestmodel_export.xlsx
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">

--- a/01-data/bestmodel_export.xlsx
+++ b/01-data/bestmodel_export.xlsx
@@ -491,7 +491,9 @@
           <t>max_depth</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -548,7 +550,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +578,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">

--- a/01-data/bestmodel_export.xlsx
+++ b/01-data/bestmodel_export.xlsx
@@ -491,9 +491,7 @@
           <t>max_depth</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -550,7 +548,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -578,7 +576,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">

--- a/01-data/bestmodel_export.xlsx
+++ b/01-data/bestmodel_export.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
